--- a/TekniskDokumentasjon/DatabaseInfo.xlsx
+++ b/TekniskDokumentasjon/DatabaseInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/aubra002_osloskolen_no/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/aubra002_osloskolen_no/Documents/August_IMI/August_2IMI/Arsoppgave/TekniskDokumentasjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB18D4F-8D30-4006-B58C-E20055AA2099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{DEB18D4F-8D30-4006-B58C-E20055AA2099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C163067-0593-46DE-B1FA-AE68C44F9235}"/>
   <bookViews>
-    <workbookView xWindow="36645" yWindow="9000" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Database</t>
   </si>
@@ -54,7 +54,10 @@
     <t>Port</t>
   </si>
   <si>
-    <t>10.2.2.163/localhost for testing</t>
+    <t>10.2.2.163</t>
+  </si>
+  <si>
+    <t>Varierer(kommer ann på hvor databasen hostes fra)</t>
   </si>
 </sst>
 </file>
@@ -414,13 +417,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -442,6 +445,9 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -482,6 +488,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010095608E42B262B646923553834AF74F49" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="2ab462d0865d5524a0d8b4bf2a3ae23d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94" xmlns:ns4="ca895afb-26c3-4d2d-990f-56cd0b9d28b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fc25155b329eb81de16c1abe8aa4a44" ns3:_="" ns4:_="">
     <xsd:import namespace="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94"/>
@@ -710,15 +725,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -726,6 +732,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFDCA42-BAA0-40F8-B733-E7E60C92EE45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9E7B1BB-C8D0-4E4D-B8E6-7E886493D06C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -744,14 +758,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFDCA42-BAA0-40F8-B733-E7E60C92EE45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D68436-DAE3-49B9-8A40-6E99AE46F812}">
   <ds:schemaRefs>

--- a/TekniskDokumentasjon/DatabaseInfo.xlsx
+++ b/TekniskDokumentasjon/DatabaseInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/aubra002_osloskolen_no/Documents/August_IMI/August_2IMI/Arsoppgave/TekniskDokumentasjon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/aubra002_osloskolen_no/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{DEB18D4F-8D30-4006-B58C-E20055AA2099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C163067-0593-46DE-B1FA-AE68C44F9235}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B4D8FA4-DA21-4BB0-B29C-0E8732FE7CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13116" yWindow="1716" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Database</t>
   </si>
   <si>
-    <t>IP</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>dbName</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>HmBw1yvcYpkawfFu</t>
-  </si>
-  <si>
     <t>game4</t>
   </si>
   <si>
     <t>Port</t>
   </si>
   <si>
-    <t>10.2.2.163</t>
-  </si>
-  <si>
-    <t>Varierer(kommer ann på hvor databasen hostes fra)</t>
+    <t>Any host</t>
+  </si>
+  <si>
+    <t>HmBW1yvcYpkawfFu</t>
+  </si>
+  <si>
+    <t>Priviliges</t>
+  </si>
+  <si>
+    <t>Ip</t>
+  </si>
+  <si>
+    <t>Select,Insert, Update, Delete, Create</t>
+  </si>
+  <si>
+    <t>n]ua2BeXUF!ci[mK</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Klient</t>
+  </si>
+  <si>
+    <t>Database brukere</t>
+  </si>
+  <si>
+    <t>bruker 1</t>
+  </si>
+  <si>
+    <t>bruker 2</t>
+  </si>
+  <si>
+    <t>Ip-en til databasen</t>
+  </si>
+  <si>
+    <t>spill</t>
+  </si>
+  <si>
+    <t>apache</t>
+  </si>
+  <si>
+    <t>trenger ikke oppgi</t>
+  </si>
+  <si>
+    <t>3306(defult port til mysql)</t>
+  </si>
+  <si>
+    <t>Hostname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +116,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,27 +162,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -422,81 +467,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010095608E42B262B646923553834AF74F49" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="2ab462d0865d5524a0d8b4bf2a3ae23d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94" xmlns:ns4="ca895afb-26c3-4d2d-990f-56cd0b9d28b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fc25155b329eb81de16c1abe8aa4a44" ns3:_="" ns4:_="">
     <xsd:import namespace="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94"/>
@@ -725,6 +836,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -732,14 +852,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFDCA42-BAA0-40F8-B733-E7E60C92EE45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9E7B1BB-C8D0-4E4D-B8E6-7E886493D06C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -758,19 +870,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFDCA42-BAA0-40F8-B733-E7E60C92EE45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D68436-DAE3-49B9-8A40-6E99AE46F812}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="ca895afb-26c3-4d2d-990f-56cd0b9d28b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>